--- a/biology/Botanique/Joubarbe_à_toile_d'araignée/Joubarbe_à_toile_d'araignée.xlsx
+++ b/biology/Botanique/Joubarbe_à_toile_d'araignée/Joubarbe_à_toile_d'araignée.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Joubarbe_%C3%A0_toile_d%27araign%C3%A9e</t>
+          <t>Joubarbe_à_toile_d'araignée</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Sempervivum arachnoideum
 La Joubarbe à toile d'araignée, dite également Voile de la mariée, (Sempervivum arachnoideum L.) est une plante herbacée vivace de la famille des Crassulacées.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Joubarbe_%C3%A0_toile_d%27araign%C3%A9e</t>
+          <t>Joubarbe_à_toile_d'araignée</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,10 +524,12 @@
           <t>Sous-espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Sempervivum arachnoideum subsp. tomentosum (C.B.Lehm. &amp; Schnittsp.) Schinz &amp; Thell[1].
-Sempervivum arachnoideum subsp. arachnoideum[2]</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Sempervivum arachnoideum subsp. tomentosum (C.B.Lehm. &amp; Schnittsp.) Schinz &amp; Thell.
+Sempervivum arachnoideum subsp. arachnoideum</t>
         </is>
       </c>
     </row>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Joubarbe_%C3%A0_toile_d%27araign%C3%A9e</t>
+          <t>Joubarbe_à_toile_d'araignée</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,10 +557,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La joubarbe à toile d'araignée est une plante couvre-sol avec des tiges de 4 à 15 cm de haut.
-Feuilles : sous forme de petites rosettes de diamètre de 0,5 à 2 cm recouvertes d'innombrables fils blancs reliant les extrémités des feuilles et imitant parfaitement une toile d'araignée, ce qui permet à la plante de lutter contre le froid des hautes altitudes[3].
+Feuilles : sous forme de petites rosettes de diamètre de 0,5 à 2 cm recouvertes d'innombrables fils blancs reliant les extrémités des feuilles et imitant parfaitement une toile d'araignée, ce qui permet à la plante de lutter contre le froid des hautes altitudes.
 Fleurs : réunies en courtes inflorescences terminales assez petites, à 8-10 pétales d'un rose carmin parcourus par une nervure plus foncée.
 			Habitus
 			Fleur
@@ -560,7 +576,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Joubarbe_%C3%A0_toile_d%27araign%C3%A9e</t>
+          <t>Joubarbe_à_toile_d'araignée</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -578,7 +594,9 @@
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nombre de chromosomes est 2n = 32 ou 2n = 64.
 </t>
@@ -591,7 +609,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Joubarbe_%C3%A0_toile_d%27araign%C3%A9e</t>
+          <t>Joubarbe_à_toile_d'araignée</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -609,10 +627,12 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette plante de rocaille apprécie le plein soleil et supporte des sols pauvres et des températures très basses (jusqu'à −30 °C - zone USDA 4). Comme toutes les succulentes, elle peut survivre à de longues périodes de sécheresse.
-Elle fleurit de juillet à août[4].
+Elle fleurit de juillet à août.
 Les graines peuvent prendre pied sur une mince végétation de lichens, ainsi que dans les pores fins ou les fissures de la roche. La plante pousse très lentement.
 </t>
         </is>
@@ -624,7 +644,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Joubarbe_%C3%A0_toile_d%27araign%C3%A9e</t>
+          <t>Joubarbe_à_toile_d'araignée</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -642,7 +662,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">La joubarbe à toile d'araignée est originaire des montagnes européennes (Pyrénées, Alpes orientales et du sud jusqu'aux Apennins et à la Corse). Elle pousse souvent sur les rochers, les débris rocheux, les pâturages et les prairies. Elle préfère les sols acides sur un substrat de silicate et passe de 280 m d'altitude (dans le Sud de la Suisse) à 2 900 m dans la vallée d’Aoste.
 </t>
@@ -655,7 +677,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Joubarbe_%C3%A0_toile_d%27araign%C3%A9e</t>
+          <t>Joubarbe_à_toile_d'araignée</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -673,7 +695,9 @@
           <t>Statut</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Toxicité : non
 Plante protégée dans 3 régions de France (voir statut INPN).
